--- a/data/trans_bre/P19C05-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P19C05-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P19C05-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P19C05-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,82</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -630,32 +630,32 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,87</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,33</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>-15,47%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,75%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,52%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-10,17; 4,34</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-1,4; 7,47</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-6,51; 1,65</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-45,3; 29,63</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,3; 234,72</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,24; 24,16</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,68</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,47</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,98%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,17%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,48%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>68,66%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,31; 4,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,21; 9,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,91; 6,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,57; 8,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,46; 34,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,9; 114,04</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,09; 62,34</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,22; 136,98</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,42</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,2</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,04</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>79,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,89%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,14%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,77%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,8; 17,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,07; 13,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,51; 3,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,72; 7,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,94; 176,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,98; 93,94</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,77; 38,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,26; 71,58</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,13</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,29</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,64%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,81%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,23%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,91%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,9; 12,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,79; 6,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,19; 9,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,75; 3,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,57; 94,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,91; 54,63</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,98; 91,7</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,13; 41,4</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,68</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,92</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,7</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,67%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,1%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>86,78%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,96; 11,7</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,02; 6,97</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,31; 11,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,66; 14,51</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,26; 193,84</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,48; 54,81</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,99; 126,45</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>31,6; 172,45</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,52</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,87</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,68</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,75</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,11%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>75,41%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,5%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,61%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,15; 3,8</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,39; 15,23</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,28; 4,07</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,22; 2,64</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,88; 25,22</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,94; 171,15</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,78; 83,97</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,77; 25,18</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,4</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,52%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,34%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,82%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,26; 4,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,88; 5,59</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,22; 4,39</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,29; 1,53</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,86; 31,16</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,62; 32,49</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,07; 70,11</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,16; 12,9</t>
         </is>
       </c>
     </row>
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,03</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,75</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,01%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,44%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,42%</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,95; 8,44</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,13; 6,73</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,48; 3,7</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,92; 4,32</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,93; 128,97</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,01; 61,47</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,47; 39,09</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,09; 69,42</t>
         </is>
       </c>
     </row>
@@ -1420,42 +1420,42 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,54</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,7%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,57%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,25%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,7%</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,46; 4,38</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,16; 5,11</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,8; 2,75</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,03; 2,84</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,27; 35,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,72; 37,39</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,01; 28,16</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,27; 29,28</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P19C05-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P19C05-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,33</t>
+          <t>-1,72</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-22,52%</t>
+          <t>-17,89%</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,59; 7,24</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 1,65</t>
+          <t>-6,01; 2,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,67; 66,22</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-52,24; 24,16</t>
+          <t>-49,94; 31,52</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,47</t>
+          <t>5,6</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>68,66%</t>
+          <t>74,16%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,57; 8,83</t>
+          <t>1,73; 8,89</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13,22; 136,98</t>
+          <t>15,04; 144,79</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,04</t>
+          <t>3,22</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>25,77%</t>
+          <t>28,26%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 7,12</t>
+          <t>-1,48; 7,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-12,26; 71,58</t>
+          <t>-11,03; 75,44</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,89</t>
+          <t>3,13</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>-1,9</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>12,81%</t>
+          <t>21,91%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-1,91%</t>
+          <t>-15,62%</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 6,58</t>
+          <t>-2,78; 8,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 3,99</t>
+          <t>-7,27; 2,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-16,91; 54,63</t>
+          <t>-17,66; 75,11</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-31,13; 41,4</t>
+          <t>-50,76; 28,46</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>9,7</t>
+          <t>9,89</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>86,78%</t>
+          <t>88,37%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,66; 14,51</t>
+          <t>4,81; 14,69</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>31,6; 172,45</t>
+          <t>33,21; 174,6</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-1,75</t>
+          <t>-1,56</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-13,61%</t>
+          <t>-12,26%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 2,64</t>
+          <t>-5,97; 2,68</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-39,77; 25,18</t>
+          <t>-38,88; 27,36</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-2,4</t>
+          <t>-3,53</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-18,82%</t>
+          <t>-28,07%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,29; 1,53</t>
+          <t>-10,51; 0,68</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-52,16; 12,9</t>
+          <t>-69,97; 6,4</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>3,47</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>22,42%</t>
+          <t>57,99%</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 4,32</t>
+          <t>0,25; 8,1</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-10,09; 69,42</t>
+          <t>2,09; 266,12</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1,41</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>13,7%</t>
+          <t>16,33%</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 2,84</t>
+          <t>-0,38; 3,87</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 29,28</t>
+          <t>-3,22; 48,68</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P19C05-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P19C05-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,17; 4,34</t>
+          <t>-9,52; 5,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,59; 7,24</t>
+          <t>-6,67; 6,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 7,47</t>
+          <t>-1,61; 7,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,01; 2,12</t>
+          <t>-5,94; 2,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-45,3; 29,63</t>
+          <t>-44,35; 43,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-36,67; 66,22</t>
+          <t>-35,85; 58,1</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-22,3; 234,72</t>
+          <t>-26,73; 249,3</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-49,94; 31,52</t>
+          <t>-49,09; 29,37</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 4,03</t>
+          <t>-5,76; 4,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 9,71</t>
+          <t>-0,82; 9,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 6,69</t>
+          <t>-3,99; 6,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,73; 8,89</t>
+          <t>2,05; 9,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-35,46; 34,21</t>
+          <t>-33,64; 36,54</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 114,04</t>
+          <t>-6,4; 101,62</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-25,09; 62,34</t>
+          <t>-25,82; 58,45</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,04; 144,79</t>
+          <t>20,84; 158,62</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,8; 17,14</t>
+          <t>3,57; 17,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 13,07</t>
+          <t>-0,74; 12,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 3,38</t>
+          <t>-6,18; 3,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 7,17</t>
+          <t>-0,85; 7,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,94; 176,86</t>
+          <t>19,88; 165,68</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 93,94</t>
+          <t>-3,68; 91,19</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-47,77; 38,91</t>
+          <t>-45,62; 42,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-11,03; 75,44</t>
+          <t>-6,91; 87,76</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 12,27</t>
+          <t>0,13; 12,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 8,44</t>
+          <t>-2,99; 8,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 9,48</t>
+          <t>-2,87; 8,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,27; 2,79</t>
+          <t>-7,92; 2,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 94,9</t>
+          <t>0,31; 98,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-17,66; 75,11</t>
+          <t>-17,04; 80,13</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-14,98; 91,7</t>
+          <t>-19,19; 80,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-50,76; 28,46</t>
+          <t>-51,55; 25,46</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 11,7</t>
+          <t>-1,6; 11,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,02; 6,97</t>
+          <t>-7,64; 7,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 11,62</t>
+          <t>-6,14; 12,01</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,81; 14,69</t>
+          <t>4,28; 14,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-11,26; 193,84</t>
+          <t>-17,46; 198,33</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-38,48; 54,81</t>
+          <t>-36,14; 64,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-32,99; 126,45</t>
+          <t>-33,37; 126,43</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>33,21; 174,6</t>
+          <t>29,79; 177,03</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-11,15; 3,8</t>
+          <t>-11,14; 4,06</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,39; 15,23</t>
+          <t>2,24; 15,3</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 4,07</t>
+          <t>-5,09; 3,94</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 2,68</t>
+          <t>-5,64; 2,42</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-47,88; 25,22</t>
+          <t>-48,24; 27,02</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>17,94; 171,15</t>
+          <t>11,18; 172,28</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-56,78; 83,97</t>
+          <t>-56,58; 79,08</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-38,88; 27,36</t>
+          <t>-37,49; 23,61</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 4,05</t>
+          <t>-5,11; 4,2</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 5,59</t>
+          <t>-3,67; 6,05</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 4,39</t>
+          <t>-2,95; 4,56</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-10,51; 0,68</t>
+          <t>-10,59; 1,09</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-29,86; 31,16</t>
+          <t>-28,65; 31,96</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-16,62; 32,49</t>
+          <t>-16,74; 35,78</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-31,07; 70,11</t>
+          <t>-30,74; 72,73</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-69,97; 6,4</t>
+          <t>-69,89; 9,44</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,95; 8,44</t>
+          <t>1,34; 8,48</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 6,73</t>
+          <t>-1,71; 6,81</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 3,7</t>
+          <t>-3,43; 3,8</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,25; 8,1</t>
+          <t>0,27; 7,5</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>7,93; 128,97</t>
+          <t>11,76; 128,38</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-8,01; 61,47</t>
+          <t>-11,93; 60,64</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-25,47; 39,09</t>
+          <t>-25,14; 36,16</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>2,09; 266,12</t>
+          <t>1,98; 246,43</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,46; 4,38</t>
+          <t>0,54; 4,66</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,16; 5,11</t>
+          <t>1,31; 5,12</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 2,75</t>
+          <t>-0,66; 2,85</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 3,87</t>
+          <t>-0,8; 3,67</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>3,27; 35,0</t>
+          <t>3,4; 36,38</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>7,72; 37,39</t>
+          <t>7,77; 36,56</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-7,01; 28,16</t>
+          <t>-5,61; 29,42</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 48,68</t>
+          <t>-7,36; 45,11</t>
         </is>
       </c>
     </row>
